--- a/src/predicciones/holt_winters/producto_12.xlsx
+++ b/src/predicciones/holt_winters/producto_12.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1738 +404,1738 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1.057087295196524</v>
+        <v>1.035275740947877</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
-        <v>1.057631738332633</v>
+        <v>1.03489993049029</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44934</v>
       </c>
       <c r="B4">
-        <v>1.073681768600898</v>
+        <v>1.063812063605206</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44935</v>
       </c>
       <c r="B5">
-        <v>2.098551492076306</v>
+        <v>2.031962687201838</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44940</v>
       </c>
       <c r="B6">
-        <v>1.059164042440995</v>
+        <v>1.03030617327541</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44941</v>
       </c>
       <c r="B7">
-        <v>1.057808729951871</v>
+        <v>1.029910712259724</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44944</v>
       </c>
       <c r="B8">
-        <v>1.023145726655158</v>
+        <v>1.036101527460855</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44947</v>
       </c>
       <c r="B9">
-        <v>1.062083463207809</v>
+        <v>1.035157437696335</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44948</v>
       </c>
       <c r="B10">
-        <v>1.062627906343919</v>
+        <v>1.034781627238748</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44953</v>
       </c>
       <c r="B11">
-        <v>1.078677936612183</v>
+        <v>1.063693760353663</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44955</v>
       </c>
       <c r="B12">
-        <v>2.103547660087591</v>
+        <v>2.031844383950295</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44958</v>
       </c>
       <c r="B13">
-        <v>1.06416021045228</v>
+        <v>1.030187870023868</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44960</v>
       </c>
       <c r="B14">
-        <v>1.062804897963156</v>
+        <v>1.029792409008181</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44961</v>
       </c>
       <c r="B15">
-        <v>1.028141894666443</v>
+        <v>1.035983224209313</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44965</v>
       </c>
       <c r="B16">
-        <v>1.067079631219094</v>
+        <v>1.035039134444792</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44966</v>
       </c>
       <c r="B17">
-        <v>1.067624074355204</v>
+        <v>1.034663323987205</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44968</v>
       </c>
       <c r="B18">
-        <v>1.083674104623469</v>
+        <v>1.063575457102121</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44970</v>
       </c>
       <c r="B19">
-        <v>2.108543828098876</v>
+        <v>2.031726080698752</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44972</v>
       </c>
       <c r="B20">
-        <v>1.069156378463565</v>
+        <v>1.030069566772326</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44973</v>
       </c>
       <c r="B21">
-        <v>1.067801065974441</v>
+        <v>1.029674105756639</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44976</v>
       </c>
       <c r="B22">
-        <v>1.033138062677728</v>
+        <v>1.03586492095777</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44979</v>
       </c>
       <c r="B23">
-        <v>1.072075799230379</v>
+        <v>1.03492083119325</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44981</v>
       </c>
       <c r="B24">
-        <v>1.072620242366489</v>
+        <v>1.034545020735663</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44986</v>
       </c>
       <c r="B25">
-        <v>1.088670272634754</v>
+        <v>1.063457153850578</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44987</v>
       </c>
       <c r="B26">
-        <v>2.113539996110161</v>
+        <v>2.03160777744721</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44990</v>
       </c>
       <c r="B27">
-        <v>1.07415254647485</v>
+        <v>1.029951263520783</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44992</v>
       </c>
       <c r="B28">
-        <v>1.072797233985727</v>
+        <v>1.029555802505097</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44996</v>
       </c>
       <c r="B29">
-        <v>1.038134230689013</v>
+        <v>1.035746617706228</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45006</v>
       </c>
       <c r="B30">
-        <v>1.077071967241664</v>
+        <v>1.034802527941708</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45009</v>
       </c>
       <c r="B31">
-        <v>1.077616410377774</v>
+        <v>1.03442671748412</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45014</v>
       </c>
       <c r="B32">
-        <v>1.093666440646039</v>
+        <v>1.063338850599036</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45015</v>
       </c>
       <c r="B33">
-        <v>2.118536164121446</v>
+        <v>2.031489474195668</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45018</v>
       </c>
       <c r="B34">
-        <v>1.079148714486136</v>
+        <v>1.029832960269241</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45020</v>
       </c>
       <c r="B35">
-        <v>1.077793401997012</v>
+        <v>1.029437499253554</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45022</v>
       </c>
       <c r="B36">
-        <v>1.043130398700299</v>
+        <v>1.035628314454685</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45026</v>
       </c>
       <c r="B37">
-        <v>1.082068135252949</v>
+        <v>1.034684224690165</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45027</v>
       </c>
       <c r="B38">
-        <v>1.082612578389059</v>
+        <v>1.034308414232578</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45028</v>
       </c>
       <c r="B39">
-        <v>1.098662608657324</v>
+        <v>1.063220547347493</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45029</v>
       </c>
       <c r="B40">
-        <v>2.123532332132731</v>
+        <v>2.031371170944126</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45030</v>
       </c>
       <c r="B41">
-        <v>1.084144882497421</v>
+        <v>1.029714657017698</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45033</v>
       </c>
       <c r="B42">
-        <v>1.082789570008297</v>
+        <v>1.029319196002012</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45035</v>
       </c>
       <c r="B43">
-        <v>1.048126566711584</v>
+        <v>1.035510011203143</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45037</v>
       </c>
       <c r="B44">
-        <v>1.087064303264234</v>
+        <v>1.034565921438623</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45040</v>
       </c>
       <c r="B45">
-        <v>1.087608746400344</v>
+        <v>1.034190110981035</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45041</v>
       </c>
       <c r="B46">
-        <v>1.103658776668609</v>
+        <v>1.063102244095951</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45049</v>
       </c>
       <c r="B47">
-        <v>2.128528500144016</v>
+        <v>2.031252867692583</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45050</v>
       </c>
       <c r="B48">
-        <v>1.089141050508706</v>
+        <v>1.029596353766156</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45054</v>
       </c>
       <c r="B49">
-        <v>1.087785738019582</v>
+        <v>1.029200892750469</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45056</v>
       </c>
       <c r="B50">
-        <v>1.053122734722869</v>
+        <v>1.035391707951601</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45058</v>
       </c>
       <c r="B51">
-        <v>1.09206047127552</v>
+        <v>1.03444761818708</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45060</v>
       </c>
       <c r="B52">
-        <v>1.092604914411629</v>
+        <v>1.034071807729493</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45065</v>
       </c>
       <c r="B53">
-        <v>1.108654944679894</v>
+        <v>1.062983940844408</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45070</v>
       </c>
       <c r="B54">
-        <v>2.133524668155302</v>
+        <v>2.03113456444104</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45071</v>
       </c>
       <c r="B55">
-        <v>1.094137218519991</v>
+        <v>1.029478050514613</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45073</v>
       </c>
       <c r="B56">
-        <v>1.092781906030867</v>
+        <v>1.029082589498927</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45078</v>
       </c>
       <c r="B57">
-        <v>1.058118902734154</v>
+        <v>1.035273404700058</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45080</v>
       </c>
       <c r="B58">
-        <v>1.097056639286805</v>
+        <v>1.034329314935538</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45084</v>
       </c>
       <c r="B59">
-        <v>1.097601082422915</v>
+        <v>1.033953504477951</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45089</v>
       </c>
       <c r="B60">
-        <v>1.113651112691179</v>
+        <v>1.062865637592866</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45090</v>
       </c>
       <c r="B61">
-        <v>2.138520836166587</v>
+        <v>2.031016261189498</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45092</v>
       </c>
       <c r="B62">
-        <v>1.099133386531276</v>
+        <v>1.029359747263071</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45093</v>
       </c>
       <c r="B63">
-        <v>1.097778074042152</v>
+        <v>1.028964286247384</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45094</v>
       </c>
       <c r="B64">
-        <v>1.063115070745439</v>
+        <v>1.035155101448515</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45095</v>
       </c>
       <c r="B65">
-        <v>1.10205280729809</v>
+        <v>1.034211011683995</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45097</v>
       </c>
       <c r="B66">
-        <v>1.1025972504342</v>
+        <v>1.033835201226408</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45099</v>
       </c>
       <c r="B67">
-        <v>1.118647280702465</v>
+        <v>1.062747334341323</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45102</v>
       </c>
       <c r="B68">
-        <v>2.143517004177872</v>
+        <v>2.030897957937955</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45104</v>
       </c>
       <c r="B69">
-        <v>1.104129554542561</v>
+        <v>1.029241444011528</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45105</v>
       </c>
       <c r="B70">
-        <v>1.102774242053437</v>
+        <v>1.028845982995842</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45106</v>
       </c>
       <c r="B71">
-        <v>1.068111238756724</v>
+        <v>1.035036798196973</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45107</v>
       </c>
       <c r="B72">
-        <v>1.107048975309375</v>
+        <v>1.034092708432453</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45111</v>
       </c>
       <c r="B73">
-        <v>1.107593418445485</v>
+        <v>1.033716897974866</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45118</v>
       </c>
       <c r="B74">
-        <v>1.12364344871375</v>
+        <v>1.062629031089781</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45125</v>
       </c>
       <c r="B75">
-        <v>2.148513172189157</v>
+        <v>2.030779654686413</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45130</v>
       </c>
       <c r="B76">
-        <v>1.109125722553846</v>
+        <v>1.029123140759986</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45132</v>
       </c>
       <c r="B77">
-        <v>1.107770410064723</v>
+        <v>1.028727679744299</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45133</v>
       </c>
       <c r="B78">
-        <v>1.073107406768009</v>
+        <v>1.034918494945431</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45135</v>
       </c>
       <c r="B79">
-        <v>1.11204514332066</v>
+        <v>1.03397440518091</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45137</v>
       </c>
       <c r="B80">
-        <v>1.11258958645677</v>
+        <v>1.033598594723323</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45138</v>
       </c>
       <c r="B81">
-        <v>1.128639616725035</v>
+        <v>1.062510727838239</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45146</v>
       </c>
       <c r="B82">
-        <v>2.153509340200442</v>
+        <v>2.030661351434871</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45147</v>
       </c>
       <c r="B83">
-        <v>1.114121890565131</v>
+        <v>1.029004837508444</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45152</v>
       </c>
       <c r="B84">
-        <v>1.112766578076008</v>
+        <v>1.028609376492757</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45154</v>
       </c>
       <c r="B85">
-        <v>1.078103574779294</v>
+        <v>1.034800191693888</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45156</v>
       </c>
       <c r="B86">
-        <v>1.117041311331945</v>
+        <v>1.033856101929368</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45157</v>
       </c>
       <c r="B87">
-        <v>1.117585754468055</v>
+        <v>1.033480291471781</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45161</v>
       </c>
       <c r="B88">
-        <v>1.13363578473632</v>
+        <v>1.062392424586696</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45166</v>
       </c>
       <c r="B89">
-        <v>2.158505508211727</v>
+        <v>2.030543048183328</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45167</v>
       </c>
       <c r="B90">
-        <v>1.119118058576417</v>
+        <v>1.028886534256901</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45169</v>
       </c>
       <c r="B91">
-        <v>1.117762746087293</v>
+        <v>1.028491073241214</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45170</v>
       </c>
       <c r="B92">
-        <v>1.08309974279058</v>
+        <v>1.034681888442346</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45173</v>
       </c>
       <c r="B93">
-        <v>1.12203747934323</v>
+        <v>1.033737798677826</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45176</v>
       </c>
       <c r="B94">
-        <v>1.12258192247934</v>
+        <v>1.033361988220238</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45179</v>
       </c>
       <c r="B95">
-        <v>1.138631952747605</v>
+        <v>1.062274121335154</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45189</v>
       </c>
       <c r="B96">
-        <v>2.163501676223012</v>
+        <v>2.030424744931786</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45191</v>
       </c>
       <c r="B97">
-        <v>1.124114226587702</v>
+        <v>1.028768231005359</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45192</v>
       </c>
       <c r="B98">
-        <v>1.122758914098578</v>
+        <v>1.028372769989672</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45197</v>
       </c>
       <c r="B99">
-        <v>1.088095910801865</v>
+        <v>1.034563585190803</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45199</v>
       </c>
       <c r="B100">
-        <v>1.127033647354515</v>
+        <v>1.033619495426283</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45201</v>
       </c>
       <c r="B101">
-        <v>1.127578090490625</v>
+        <v>1.033243684968696</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45202</v>
       </c>
       <c r="B102">
-        <v>1.14362812075889</v>
+        <v>1.062155818083611</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45204</v>
       </c>
       <c r="B103">
-        <v>2.168497844234297</v>
+        <v>2.030306441680243</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45206</v>
       </c>
       <c r="B104">
-        <v>1.129110394598987</v>
+        <v>1.028649927753816</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45210</v>
       </c>
       <c r="B105">
-        <v>1.127755082109863</v>
+        <v>1.028254466738129</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45211</v>
       </c>
       <c r="B106">
-        <v>1.09309207881315</v>
+        <v>1.034445281939261</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45213</v>
       </c>
       <c r="B107">
-        <v>1.132029815365801</v>
+        <v>1.033501192174741</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45214</v>
       </c>
       <c r="B108">
-        <v>1.132574258501911</v>
+        <v>1.033125381717153</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45222</v>
       </c>
       <c r="B109">
-        <v>1.148624288770175</v>
+        <v>1.062037514832069</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45223</v>
       </c>
       <c r="B110">
-        <v>2.173494012245583</v>
+        <v>2.0301881384287</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45224</v>
       </c>
       <c r="B111">
-        <v>1.134106562610272</v>
+        <v>1.028531624502274</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45229</v>
       </c>
       <c r="B112">
-        <v>1.132751250121148</v>
+        <v>1.028136163486587</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45239</v>
       </c>
       <c r="B113">
-        <v>1.098088246824435</v>
+        <v>1.034326978687719</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45240</v>
       </c>
       <c r="B114">
-        <v>1.137025983377086</v>
+        <v>1.033382888923198</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45245</v>
       </c>
       <c r="B115">
-        <v>1.137570426513196</v>
+        <v>1.033007078465611</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45250</v>
       </c>
       <c r="B116">
-        <v>1.153620456781461</v>
+        <v>1.061919211580526</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45255</v>
       </c>
       <c r="B117">
-        <v>2.178490180256868</v>
+        <v>2.030069835177158</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45256</v>
       </c>
       <c r="B118">
-        <v>1.139102730621557</v>
+        <v>1.028413321250731</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45258</v>
       </c>
       <c r="B119">
-        <v>1.137747418132433</v>
+        <v>1.028017860235044</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45259</v>
       </c>
       <c r="B120">
-        <v>1.10308441483572</v>
+        <v>1.034208675436176</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45265</v>
       </c>
       <c r="B121">
-        <v>1.142022151388371</v>
+        <v>1.033264585671656</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45269</v>
       </c>
       <c r="B122">
-        <v>1.142566594524481</v>
+        <v>1.032888775214069</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45272</v>
       </c>
       <c r="B123">
-        <v>1.158616624792746</v>
+        <v>1.061800908328984</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45273</v>
       </c>
       <c r="B124">
-        <v>2.183486348268153</v>
+        <v>2.029951531925616</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45274</v>
       </c>
       <c r="B125">
-        <v>1.144098898632842</v>
+        <v>1.028295017999189</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45276</v>
       </c>
       <c r="B126">
-        <v>1.142743586143719</v>
+        <v>1.027899556983502</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45279</v>
       </c>
       <c r="B127">
-        <v>1.108080582847005</v>
+        <v>1.034090372184633</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45281</v>
       </c>
       <c r="B128">
-        <v>1.147018319399656</v>
+        <v>1.033146282420113</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45282</v>
       </c>
       <c r="B129">
-        <v>1.147562762535766</v>
+        <v>1.032770471962526</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45289</v>
       </c>
       <c r="B130">
-        <v>1.163612792804031</v>
+        <v>1.061682605077441</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45290</v>
       </c>
       <c r="B131">
-        <v>2.188482516279438</v>
+        <v>2.029833228674073</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45295</v>
       </c>
       <c r="B132">
-        <v>1.149095066644127</v>
+        <v>1.028176714747646</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45297</v>
       </c>
       <c r="B133">
-        <v>1.147739754155004</v>
+        <v>1.02778125373196</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45298</v>
       </c>
       <c r="B134">
-        <v>1.11307675085829</v>
+        <v>1.033972068933091</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45301</v>
       </c>
       <c r="B135">
-        <v>1.152014487410941</v>
+        <v>1.033027979168571</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45302</v>
       </c>
       <c r="B136">
-        <v>1.152558930547051</v>
+        <v>1.032652168710984</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45303</v>
       </c>
       <c r="B137">
-        <v>1.168608960815316</v>
+        <v>1.061564301825899</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45304</v>
       </c>
       <c r="B138">
-        <v>2.193478684290723</v>
+        <v>2.029714925422531</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45306</v>
       </c>
       <c r="B139">
-        <v>1.154091234655412</v>
+        <v>1.028058411496104</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45311</v>
       </c>
       <c r="B140">
-        <v>1.152735922166289</v>
+        <v>1.027662950480417</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45315</v>
       </c>
       <c r="B141">
-        <v>1.118072918869575</v>
+        <v>1.033853765681549</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45316</v>
       </c>
       <c r="B142">
-        <v>1.157010655422226</v>
+        <v>1.032909675917028</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45317</v>
       </c>
       <c r="B143">
-        <v>1.157555098558336</v>
+        <v>1.032533865459441</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45318</v>
       </c>
       <c r="B144">
-        <v>1.173605128826601</v>
+        <v>1.061445998574357</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45319</v>
       </c>
       <c r="B145">
-        <v>2.198474852302009</v>
+        <v>2.029596622170988</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45321</v>
       </c>
       <c r="B146">
-        <v>1.159087402666698</v>
+        <v>1.027940108244561</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45322</v>
       </c>
       <c r="B147">
-        <v>1.157732090177574</v>
+        <v>1.027544647228875</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45324</v>
       </c>
       <c r="B148">
-        <v>1.123069086880861</v>
+        <v>1.033735462430006</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45326</v>
       </c>
       <c r="B149">
-        <v>1.162006823433511</v>
+        <v>1.032791372665486</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45327</v>
       </c>
       <c r="B150">
-        <v>1.162551266569621</v>
+        <v>1.032415562207899</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45332</v>
       </c>
       <c r="B151">
-        <v>1.178601296837886</v>
+        <v>1.061327695322814</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45336</v>
       </c>
       <c r="B152">
-        <v>2.203471020313294</v>
+        <v>2.029478318919446</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45337</v>
       </c>
       <c r="B153">
-        <v>1.164083570677983</v>
+        <v>1.027821804993019</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45339</v>
       </c>
       <c r="B154">
-        <v>1.162728258188859</v>
+        <v>1.027426343977332</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45340</v>
       </c>
       <c r="B155">
-        <v>1.128065254892146</v>
+        <v>1.033617159178464</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45344</v>
       </c>
       <c r="B156">
-        <v>1.167002991444797</v>
+        <v>1.032673069413943</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45346</v>
       </c>
       <c r="B157">
-        <v>1.167547434580906</v>
+        <v>1.032297258956356</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45349</v>
       </c>
       <c r="B158">
-        <v>1.183597464849171</v>
+        <v>1.061209392071272</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45350</v>
       </c>
       <c r="B159">
-        <v>2.208467188324579</v>
+        <v>2.029360015667903</v>
       </c>
       <c r="C159">
         <v>2</v>
